--- a/dataset/original/lemonade_original.xlsx
+++ b/dataset/original/lemonade_original.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lab Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zubquzaini/Documents/data_analysis/data-analysis-lemonade-sales/dataset/original/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E035FE4-ED98-4698-86F6-8BA8BAC6C899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02858B0B-9C0E-0A4F-ADDE-437DF6C3E9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28140" windowHeight="14145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lemonade2016" sheetId="1" r:id="rId1"/>
+    <sheet name="Lemonade Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Lemonade Clean" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -52,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -887,14 +899,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -917,7 +931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42552</v>
       </c>
@@ -940,7 +954,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>42553</v>
       </c>
@@ -963,7 +977,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42554</v>
       </c>
@@ -986,7 +1000,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>42555</v>
       </c>
@@ -1009,7 +1023,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42556</v>
       </c>
@@ -1032,7 +1046,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42557</v>
       </c>
@@ -1055,7 +1069,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42557</v>
       </c>
@@ -1078,7 +1092,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42558</v>
       </c>
@@ -1101,7 +1115,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -1121,7 +1135,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42560</v>
       </c>
@@ -1144,7 +1158,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42561</v>
       </c>
@@ -1167,7 +1181,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42562</v>
       </c>
@@ -1190,7 +1204,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42563</v>
       </c>
@@ -1213,7 +1227,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42564</v>
       </c>
@@ -1236,7 +1250,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42565</v>
       </c>
@@ -1259,7 +1273,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42566</v>
       </c>
@@ -1282,7 +1296,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>42567</v>
       </c>
@@ -1305,7 +1319,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>42568</v>
       </c>
@@ -1328,7 +1342,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42569</v>
       </c>
@@ -1351,7 +1365,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42570</v>
       </c>
@@ -1374,7 +1388,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>42571</v>
       </c>
@@ -1394,7 +1408,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>42572</v>
       </c>
@@ -1417,7 +1431,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>42573</v>
       </c>
@@ -1440,7 +1454,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>42574</v>
       </c>
@@ -1463,7 +1477,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>42575</v>
       </c>
@@ -1486,7 +1500,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>42576</v>
       </c>
@@ -1509,7 +1523,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>42577</v>
       </c>
@@ -1532,7 +1546,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>42578</v>
       </c>
@@ -1555,7 +1569,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>42579</v>
       </c>
@@ -1578,7 +1592,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>42580</v>
       </c>
@@ -1601,7 +1615,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>42581</v>
       </c>
@@ -1624,7 +1638,784 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>42582</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>76</v>
+      </c>
+      <c r="D33">
+        <v>47</v>
+      </c>
+      <c r="E33">
+        <v>82</v>
+      </c>
+      <c r="F33">
+        <v>68</v>
+      </c>
+      <c r="G33">
+        <v>0.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70140173-A59C-D94E-9AB4-4689497F90FF}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>97</v>
+      </c>
+      <c r="D2">
+        <v>67</v>
+      </c>
+      <c r="E2">
+        <v>70</v>
+      </c>
+      <c r="F2">
+        <v>90</v>
+      </c>
+      <c r="G2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>42553</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>98</v>
+      </c>
+      <c r="D3">
+        <v>67</v>
+      </c>
+      <c r="E3">
+        <v>72</v>
+      </c>
+      <c r="F3">
+        <v>90</v>
+      </c>
+      <c r="G3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>42554</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>110</v>
+      </c>
+      <c r="D4">
+        <v>77</v>
+      </c>
+      <c r="E4">
+        <v>71</v>
+      </c>
+      <c r="F4">
+        <v>104</v>
+      </c>
+      <c r="G4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>42555</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>134</v>
+      </c>
+      <c r="D5">
+        <v>99</v>
+      </c>
+      <c r="E5">
+        <v>76</v>
+      </c>
+      <c r="F5">
+        <v>98</v>
+      </c>
+      <c r="G5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>42556</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>159</v>
+      </c>
+      <c r="D6">
+        <v>118</v>
+      </c>
+      <c r="E6">
+        <v>78</v>
+      </c>
+      <c r="F6">
+        <v>135</v>
+      </c>
+      <c r="G6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>42557</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>103</v>
+      </c>
+      <c r="D7">
+        <v>69</v>
+      </c>
+      <c r="E7">
+        <v>82</v>
+      </c>
+      <c r="F7">
+        <v>90</v>
+      </c>
+      <c r="G7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>42557</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>103</v>
+      </c>
+      <c r="D8">
+        <v>69</v>
+      </c>
+      <c r="E8">
+        <v>82</v>
+      </c>
+      <c r="F8">
+        <v>90</v>
+      </c>
+      <c r="G8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>42558</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>143</v>
+      </c>
+      <c r="D9">
+        <v>101</v>
+      </c>
+      <c r="E9">
+        <v>81</v>
+      </c>
+      <c r="F9">
+        <v>135</v>
+      </c>
+      <c r="G9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>42559</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>123</v>
+      </c>
+      <c r="D10">
+        <v>86</v>
+      </c>
+      <c r="E10">
+        <v>82</v>
+      </c>
+      <c r="F10">
+        <v>113</v>
+      </c>
+      <c r="G10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>42560</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>134</v>
+      </c>
+      <c r="D11">
+        <v>95</v>
+      </c>
+      <c r="E11">
+        <v>80</v>
+      </c>
+      <c r="F11">
+        <v>126</v>
+      </c>
+      <c r="G11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>42561</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>140</v>
+      </c>
+      <c r="D12">
+        <v>98</v>
+      </c>
+      <c r="E12">
+        <v>82</v>
+      </c>
+      <c r="F12">
+        <v>131</v>
+      </c>
+      <c r="G12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>42562</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>162</v>
+      </c>
+      <c r="D13">
+        <v>120</v>
+      </c>
+      <c r="E13">
+        <v>83</v>
+      </c>
+      <c r="F13">
+        <v>135</v>
+      </c>
+      <c r="G13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>42563</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>130</v>
+      </c>
+      <c r="D14">
+        <v>95</v>
+      </c>
+      <c r="E14">
+        <v>84</v>
+      </c>
+      <c r="F14">
+        <v>99</v>
+      </c>
+      <c r="G14">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>42564</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>109</v>
+      </c>
+      <c r="D15">
+        <v>75</v>
+      </c>
+      <c r="E15">
+        <v>77</v>
+      </c>
+      <c r="F15">
+        <v>99</v>
+      </c>
+      <c r="G15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>42565</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>122</v>
+      </c>
+      <c r="D16">
+        <v>85</v>
+      </c>
+      <c r="E16">
+        <v>78</v>
+      </c>
+      <c r="F16">
+        <v>113</v>
+      </c>
+      <c r="G16">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>42566</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>98</v>
+      </c>
+      <c r="D17">
+        <v>62</v>
+      </c>
+      <c r="E17">
+        <v>75</v>
+      </c>
+      <c r="F17">
+        <v>108</v>
+      </c>
+      <c r="G17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>42567</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>81</v>
+      </c>
+      <c r="D18">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>74</v>
+      </c>
+      <c r="F18">
+        <v>90</v>
+      </c>
+      <c r="G18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>42568</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>115</v>
+      </c>
+      <c r="D19">
+        <v>76</v>
+      </c>
+      <c r="E19">
+        <v>77</v>
+      </c>
+      <c r="F19">
+        <v>126</v>
+      </c>
+      <c r="G19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>42569</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>131</v>
+      </c>
+      <c r="D20">
+        <v>92</v>
+      </c>
+      <c r="E20">
+        <v>81</v>
+      </c>
+      <c r="F20">
+        <v>122</v>
+      </c>
+      <c r="G20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>42570</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>122</v>
+      </c>
+      <c r="D21">
+        <v>85</v>
+      </c>
+      <c r="E21">
+        <v>78</v>
+      </c>
+      <c r="F21">
+        <v>113</v>
+      </c>
+      <c r="G21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>42571</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>71</v>
+      </c>
+      <c r="D22">
+        <v>42</v>
+      </c>
+      <c r="E22">
+        <v>70</v>
+      </c>
+      <c r="F22">
+        <v>108</v>
+      </c>
+      <c r="G22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>42572</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>83</v>
+      </c>
+      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>77</v>
+      </c>
+      <c r="F23">
+        <v>90</v>
+      </c>
+      <c r="G23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>42573</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>112</v>
+      </c>
+      <c r="D24">
+        <v>75</v>
+      </c>
+      <c r="E24">
+        <v>80</v>
+      </c>
+      <c r="F24">
+        <v>108</v>
+      </c>
+      <c r="G24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>42574</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>120</v>
+      </c>
+      <c r="D25">
+        <v>82</v>
+      </c>
+      <c r="E25">
+        <v>81</v>
+      </c>
+      <c r="F25">
+        <v>117</v>
+      </c>
+      <c r="G25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>42575</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>121</v>
+      </c>
+      <c r="D26">
+        <v>82</v>
+      </c>
+      <c r="E26">
+        <v>82</v>
+      </c>
+      <c r="F26">
+        <v>117</v>
+      </c>
+      <c r="G26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>42576</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>156</v>
+      </c>
+      <c r="D27">
+        <v>113</v>
+      </c>
+      <c r="E27">
+        <v>84</v>
+      </c>
+      <c r="F27">
+        <v>135</v>
+      </c>
+      <c r="G27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>42577</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>176</v>
+      </c>
+      <c r="D28">
+        <v>129</v>
+      </c>
+      <c r="E28">
+        <v>83</v>
+      </c>
+      <c r="F28">
+        <v>158</v>
+      </c>
+      <c r="G28">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>42578</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>104</v>
+      </c>
+      <c r="D29">
+        <v>68</v>
+      </c>
+      <c r="E29">
+        <v>80</v>
+      </c>
+      <c r="F29">
+        <v>99</v>
+      </c>
+      <c r="G29">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>42579</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>96</v>
+      </c>
+      <c r="D30">
+        <v>63</v>
+      </c>
+      <c r="E30">
+        <v>82</v>
+      </c>
+      <c r="F30">
+        <v>90</v>
+      </c>
+      <c r="G30">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>42580</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>66</v>
+      </c>
+      <c r="E31">
+        <v>81</v>
+      </c>
+      <c r="F31">
+        <v>95</v>
+      </c>
+      <c r="G31">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>42581</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>88</v>
+      </c>
+      <c r="D32">
+        <v>57</v>
+      </c>
+      <c r="E32">
+        <v>82</v>
+      </c>
+      <c r="F32">
+        <v>81</v>
+      </c>
+      <c r="G32">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>42582</v>
       </c>
